--- a/Code/Results/Cases/Case_0_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9977452119437558</v>
+        <v>1.043141713594257</v>
       </c>
       <c r="D2">
-        <v>1.010768254705548</v>
+        <v>1.052482017688416</v>
       </c>
       <c r="E2">
-        <v>1.004205305121297</v>
+        <v>1.041156550327732</v>
       </c>
       <c r="F2">
-        <v>1.012375848385004</v>
+        <v>1.059408031509647</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042109999051415</v>
+        <v>1.034717511710976</v>
       </c>
       <c r="J2">
-        <v>1.019993573122604</v>
+        <v>1.048213753378079</v>
       </c>
       <c r="K2">
-        <v>1.022079581714973</v>
+        <v>1.055230628717997</v>
       </c>
       <c r="L2">
-        <v>1.015606362623276</v>
+        <v>1.043936862582978</v>
       </c>
       <c r="M2">
-        <v>1.023665419006281</v>
+        <v>1.062137617646028</v>
       </c>
       <c r="N2">
-        <v>1.009864775076907</v>
+        <v>1.019843307565464</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004365879348731</v>
+        <v>1.044482344636537</v>
       </c>
       <c r="D3">
-        <v>1.016980004973135</v>
+        <v>1.05379617344803</v>
       </c>
       <c r="E3">
-        <v>1.009658634062819</v>
+        <v>1.042308310228442</v>
       </c>
       <c r="F3">
-        <v>1.01921392022053</v>
+        <v>1.060872610398774</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043602707530662</v>
+        <v>1.034933925769033</v>
       </c>
       <c r="J3">
-        <v>1.024738229555922</v>
+        <v>1.049199170057318</v>
       </c>
       <c r="K3">
-        <v>1.027400137271212</v>
+        <v>1.056356352825202</v>
       </c>
       <c r="L3">
-        <v>1.020169404680431</v>
+        <v>1.044898296560397</v>
       </c>
       <c r="M3">
-        <v>1.029606719065261</v>
+        <v>1.063414775286938</v>
       </c>
       <c r="N3">
-        <v>1.011514839820255</v>
+        <v>1.020179458231152</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008531273813107</v>
+        <v>1.045348882553337</v>
       </c>
       <c r="D4">
-        <v>1.020893643656016</v>
+        <v>1.054645919465514</v>
       </c>
       <c r="E4">
-        <v>1.013095945957438</v>
+        <v>1.043053050402776</v>
       </c>
       <c r="F4">
-        <v>1.02352375295716</v>
+        <v>1.061819947172719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044528279114627</v>
+        <v>1.035072080063426</v>
       </c>
       <c r="J4">
-        <v>1.027719238004472</v>
+        <v>1.049835407551656</v>
       </c>
       <c r="K4">
-        <v>1.03074627481682</v>
+        <v>1.057083627388556</v>
       </c>
       <c r="L4">
-        <v>1.023038842694276</v>
+        <v>1.045519308542916</v>
       </c>
       <c r="M4">
-        <v>1.033346320845916</v>
+        <v>1.064240322906425</v>
       </c>
       <c r="N4">
-        <v>1.012550613214513</v>
+        <v>1.020396274279986</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010255453954135</v>
+        <v>1.045712954610027</v>
       </c>
       <c r="D5">
-        <v>1.022514883654961</v>
+        <v>1.055003012834022</v>
       </c>
       <c r="E5">
-        <v>1.014520195352409</v>
+        <v>1.043366016441585</v>
       </c>
       <c r="F5">
-        <v>1.025309525596385</v>
+        <v>1.062218129865704</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044908086332613</v>
+        <v>1.035129710796643</v>
       </c>
       <c r="J5">
-        <v>1.028952127497382</v>
+        <v>1.050102551425306</v>
       </c>
       <c r="K5">
-        <v>1.032130976849243</v>
+        <v>1.057389103224557</v>
       </c>
       <c r="L5">
-        <v>1.024226189924327</v>
+        <v>1.04578012147027</v>
       </c>
       <c r="M5">
-        <v>1.034894599295764</v>
+        <v>1.064587181586768</v>
       </c>
       <c r="N5">
-        <v>1.012978749408833</v>
+        <v>1.020487258091707</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0105434109464</v>
+        <v>1.045774071113191</v>
       </c>
       <c r="D6">
-        <v>1.022785721637067</v>
+        <v>1.055062962294645</v>
       </c>
       <c r="E6">
-        <v>1.014758143344363</v>
+        <v>1.043418557708707</v>
       </c>
       <c r="F6">
-        <v>1.025607874480065</v>
+        <v>1.062284982069589</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044971321712437</v>
+        <v>1.035139360923274</v>
       </c>
       <c r="J6">
-        <v>1.029157970932272</v>
+        <v>1.050147386774437</v>
       </c>
       <c r="K6">
-        <v>1.03236221440102</v>
+        <v>1.057440378208194</v>
       </c>
       <c r="L6">
-        <v>1.024424464779162</v>
+        <v>1.045823897914622</v>
       </c>
       <c r="M6">
-        <v>1.03515319789933</v>
+        <v>1.064645408984596</v>
       </c>
       <c r="N6">
-        <v>1.013050216551249</v>
+        <v>1.020502524987343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008554416462536</v>
+        <v>1.045353748162674</v>
       </c>
       <c r="D7">
-        <v>1.020915399648915</v>
+        <v>1.054650691509245</v>
       </c>
       <c r="E7">
-        <v>1.013115057201012</v>
+        <v>1.043057232748744</v>
       </c>
       <c r="F7">
-        <v>1.023547715224898</v>
+        <v>1.061825268008903</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044533390231456</v>
+        <v>1.035072851892737</v>
       </c>
       <c r="J7">
-        <v>1.027735790529833</v>
+        <v>1.049838978435444</v>
       </c>
       <c r="K7">
-        <v>1.030764862358912</v>
+        <v>1.057087710229701</v>
       </c>
       <c r="L7">
-        <v>1.023054781407971</v>
+        <v>1.045522794558115</v>
       </c>
       <c r="M7">
-        <v>1.033367101157454</v>
+        <v>1.064244958435976</v>
       </c>
       <c r="N7">
-        <v>1.01255636225463</v>
+        <v>1.020397490659873</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00000816501091</v>
+        <v>1.043594983516239</v>
       </c>
       <c r="D8">
-        <v>1.01289024259085</v>
+        <v>1.052926269519644</v>
       </c>
       <c r="E8">
-        <v>1.006067871916983</v>
+        <v>1.041545903641882</v>
       </c>
       <c r="F8">
-        <v>1.01471147579795</v>
+        <v>1.059903066739545</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042623031146624</v>
+        <v>1.034791039596699</v>
       </c>
       <c r="J8">
-        <v>1.021616130421308</v>
+        <v>1.048547069866396</v>
       </c>
       <c r="K8">
-        <v>1.023898393007258</v>
+        <v>1.055611311499693</v>
       </c>
       <c r="L8">
-        <v>1.017166272596246</v>
+        <v>1.044262013200143</v>
       </c>
       <c r="M8">
-        <v>1.025695790992741</v>
+        <v>1.062569419310556</v>
       </c>
       <c r="N8">
-        <v>1.010429246805315</v>
+        <v>1.019957055921425</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9839687705451376</v>
+        <v>1.040488411403743</v>
       </c>
       <c r="D9">
-        <v>0.9978762179522643</v>
+        <v>1.049882840552151</v>
       </c>
       <c r="E9">
-        <v>0.9928972988945893</v>
+        <v>1.038878585530444</v>
       </c>
       <c r="F9">
-        <v>0.9981914721814426</v>
+        <v>1.056513063723964</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038930882981235</v>
+        <v>1.034280016693602</v>
       </c>
       <c r="J9">
-        <v>1.010100616807079</v>
+        <v>1.046259753032331</v>
       </c>
       <c r="K9">
-        <v>1.011003846272851</v>
+        <v>1.053000785999842</v>
       </c>
       <c r="L9">
-        <v>1.006106673281438</v>
+        <v>1.042031801497706</v>
       </c>
       <c r="M9">
-        <v>1.011313959794217</v>
+        <v>1.059610145901546</v>
       </c>
       <c r="N9">
-        <v>1.006419674938343</v>
+        <v>1.019175581047047</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9725060600333277</v>
+        <v>1.038412096900294</v>
       </c>
       <c r="D10">
-        <v>0.9871829857742687</v>
+        <v>1.047850426266706</v>
       </c>
       <c r="E10">
-        <v>0.9835289452661976</v>
+        <v>1.037097378375161</v>
       </c>
       <c r="F10">
-        <v>0.9864313566824738</v>
+        <v>1.054250862203051</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036223754119765</v>
+        <v>1.033929580801075</v>
       </c>
       <c r="J10">
-        <v>1.001854637278857</v>
+        <v>1.044727409574899</v>
       </c>
       <c r="K10">
-        <v>1.001787576753126</v>
+        <v>1.051254212196257</v>
       </c>
       <c r="L10">
-        <v>0.9982020971150991</v>
+        <v>1.040539060722382</v>
       </c>
       <c r="M10">
-        <v>1.001049996332997</v>
+        <v>1.057632495339247</v>
       </c>
       <c r="N10">
-        <v>1.003544852388288</v>
+        <v>1.018650924752226</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9673313407261188</v>
+        <v>1.03751171587252</v>
       </c>
       <c r="D11">
-        <v>0.9823654779742049</v>
+        <v>1.046969491085067</v>
       </c>
       <c r="E11">
-        <v>0.9793118036916572</v>
+        <v>1.036325341250355</v>
       </c>
       <c r="F11">
-        <v>0.9811340218778153</v>
+        <v>1.053270716879101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034986409247972</v>
+        <v>1.033775513221056</v>
       </c>
       <c r="J11">
-        <v>0.9981292848455058</v>
+        <v>1.044062072400494</v>
       </c>
       <c r="K11">
-        <v>0.9976277983061638</v>
+        <v>1.050496399657132</v>
       </c>
       <c r="L11">
-        <v>0.9946347073293126</v>
+        <v>1.039891239130411</v>
       </c>
       <c r="M11">
-        <v>0.9964207140314258</v>
+        <v>1.056774954063185</v>
       </c>
       <c r="N11">
-        <v>1.002245453038443</v>
+        <v>1.018422857733476</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9653746856450305</v>
+        <v>1.037177069810005</v>
       </c>
       <c r="D12">
-        <v>0.9805454763823044</v>
+        <v>1.046642134423112</v>
       </c>
       <c r="E12">
-        <v>0.9777191985309854</v>
+        <v>1.036038453790699</v>
       </c>
       <c r="F12">
-        <v>0.9791328203870114</v>
+        <v>1.052906551830964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034516352233336</v>
+        <v>1.03371793507485</v>
       </c>
       <c r="J12">
-        <v>0.9967203441774649</v>
+        <v>1.043814658809328</v>
       </c>
       <c r="K12">
-        <v>0.9960551327555663</v>
+        <v>1.050214679329385</v>
       </c>
       <c r="L12">
-        <v>0.9932860854695257</v>
+        <v>1.039650387119533</v>
       </c>
       <c r="M12">
-        <v>0.9946710278633463</v>
+        <v>1.056456238856841</v>
       </c>
       <c r="N12">
-        <v>1.001753946240338</v>
+        <v>1.018338008933224</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9657960060090787</v>
+        <v>1.037248861870034</v>
       </c>
       <c r="D13">
-        <v>0.9809372981855357</v>
+        <v>1.046712359867886</v>
       </c>
       <c r="E13">
-        <v>0.9780620375047004</v>
+        <v>1.036099997550004</v>
       </c>
       <c r="F13">
-        <v>0.9795636496322602</v>
+        <v>1.052984670880778</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034617665576643</v>
+        <v>1.033730301664475</v>
       </c>
       <c r="J13">
-        <v>0.9970237395127984</v>
+        <v>1.043867742496599</v>
       </c>
       <c r="K13">
-        <v>0.9963937581265181</v>
+        <v>1.05027512000257</v>
       </c>
       <c r="L13">
-        <v>0.993576465672242</v>
+        <v>1.039702060808297</v>
       </c>
       <c r="M13">
-        <v>0.9950477478555152</v>
+        <v>1.056524612858041</v>
       </c>
       <c r="N13">
-        <v>1.001859787994069</v>
+        <v>1.018356215397741</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9671703248154063</v>
+        <v>1.037484058128432</v>
       </c>
       <c r="D14">
-        <v>0.982215674659188</v>
+        <v>1.04694243452741</v>
       </c>
       <c r="E14">
-        <v>0.979180705012466</v>
+        <v>1.036301629483472</v>
       </c>
       <c r="F14">
-        <v>0.9809693029176424</v>
+        <v>1.053240616862652</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034947771532834</v>
+        <v>1.033770760951523</v>
       </c>
       <c r="J14">
-        <v>0.9980133469453818</v>
+        <v>1.044041626804651</v>
       </c>
       <c r="K14">
-        <v>0.9974983763200321</v>
+        <v>1.050473117386968</v>
       </c>
       <c r="L14">
-        <v>0.9945237210937271</v>
+        <v>1.039871334782526</v>
       </c>
       <c r="M14">
-        <v>0.9962767145600849</v>
+        <v>1.05674861279259</v>
       </c>
       <c r="N14">
-        <v>1.00220500955298</v>
+        <v>1.01841584685724</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9680124227722274</v>
+        <v>1.037628943042613</v>
       </c>
       <c r="D15">
-        <v>0.9829991969246809</v>
+        <v>1.047084172669019</v>
       </c>
       <c r="E15">
-        <v>0.9798664198335101</v>
+        <v>1.036425845752899</v>
       </c>
       <c r="F15">
-        <v>0.9818308417538244</v>
+        <v>1.053398300811747</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035149754482412</v>
+        <v>1.033795642765747</v>
       </c>
       <c r="J15">
-        <v>0.9986196789025059</v>
+        <v>1.044148725743725</v>
       </c>
       <c r="K15">
-        <v>0.9981752506937359</v>
+        <v>1.050595078835362</v>
       </c>
       <c r="L15">
-        <v>0.9951041803968826</v>
+        <v>1.039975600508438</v>
       </c>
       <c r="M15">
-        <v>0.9970298483425605</v>
+        <v>1.056886601720235</v>
       </c>
       <c r="N15">
-        <v>1.002416518177991</v>
+        <v>1.018452569900568</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9728448067880506</v>
+        <v>1.038471823863262</v>
       </c>
       <c r="D16">
-        <v>0.9874985613779322</v>
+        <v>1.047908871937151</v>
       </c>
       <c r="E16">
-        <v>0.9838052705238587</v>
+        <v>1.037148599534425</v>
       </c>
       <c r="F16">
-        <v>0.9867783768006153</v>
+        <v>1.054315898151654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036304445131638</v>
+        <v>1.033939756652065</v>
       </c>
       <c r="J16">
-        <v>1.002098456293775</v>
+        <v>1.044771527080334</v>
       </c>
       <c r="K16">
-        <v>1.002059908568487</v>
+        <v>1.05130447300736</v>
       </c>
       <c r="L16">
-        <v>0.9984356562373897</v>
+        <v>1.040582023543547</v>
       </c>
       <c r="M16">
-        <v>1.001353133445089</v>
+        <v>1.057689381697693</v>
       </c>
       <c r="N16">
-        <v>1.003629885341803</v>
+        <v>1.01866604200778</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9758175968754664</v>
+        <v>1.039000182495534</v>
       </c>
       <c r="D17">
-        <v>0.9902691283822549</v>
+        <v>1.048425943209378</v>
       </c>
       <c r="E17">
-        <v>0.9862316434387</v>
+        <v>1.037601756942639</v>
       </c>
       <c r="F17">
-        <v>0.9898250957541275</v>
+        <v>1.05489131882116</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037010866001008</v>
+        <v>1.034029531867869</v>
       </c>
       <c r="J17">
-        <v>1.004237870759981</v>
+        <v>1.045161703227555</v>
       </c>
       <c r="K17">
-        <v>1.004449953710021</v>
+        <v>1.051749043245402</v>
       </c>
       <c r="L17">
-        <v>1.000485466742801</v>
+        <v>1.040962024594049</v>
       </c>
       <c r="M17">
-        <v>1.004013911340225</v>
+        <v>1.058192618038308</v>
       </c>
       <c r="N17">
-        <v>1.004375948415128</v>
+        <v>1.018799708974143</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9775313937126486</v>
+        <v>1.039308237867872</v>
       </c>
       <c r="D18">
-        <v>0.9918672630282965</v>
+        <v>1.048727456947504</v>
       </c>
       <c r="E18">
-        <v>0.9876315618693777</v>
+        <v>1.03786600267189</v>
       </c>
       <c r="F18">
-        <v>0.9915826031943296</v>
+        <v>1.055226894736365</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037416673093904</v>
+        <v>1.034081671828355</v>
       </c>
       <c r="J18">
-        <v>1.005470961375478</v>
+        <v>1.045389110812289</v>
       </c>
       <c r="K18">
-        <v>1.005827870451961</v>
+        <v>1.052008205784814</v>
       </c>
       <c r="L18">
-        <v>1.001667261537559</v>
+        <v>1.041183532640104</v>
       </c>
       <c r="M18">
-        <v>1.005548231110692</v>
+        <v>1.05848603131076</v>
       </c>
       <c r="N18">
-        <v>1.004805895821086</v>
+        <v>1.018877589119105</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.97811241047585</v>
+        <v>1.039413255370998</v>
       </c>
       <c r="D19">
-        <v>0.9924092204021309</v>
+        <v>1.048830251039896</v>
       </c>
       <c r="E19">
-        <v>0.9881063536224132</v>
+        <v>1.037956091318084</v>
       </c>
       <c r="F19">
-        <v>0.9921786220533817</v>
+        <v>1.055341307917028</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037554004023582</v>
+        <v>1.034099412176203</v>
       </c>
       <c r="J19">
-        <v>1.005888958974073</v>
+        <v>1.045466621262682</v>
       </c>
       <c r="K19">
-        <v>1.006295025000425</v>
+        <v>1.052096548585036</v>
       </c>
       <c r="L19">
-        <v>1.002067929420537</v>
+        <v>1.041259037498941</v>
       </c>
       <c r="M19">
-        <v>1.006068465772706</v>
+        <v>1.058586058136243</v>
       </c>
       <c r="N19">
-        <v>1.004951630195059</v>
+        <v>1.018904129764806</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9755007511935275</v>
+        <v>1.038943507822261</v>
       </c>
       <c r="D20">
-        <v>0.9899737398901722</v>
+        <v>1.04837047520387</v>
       </c>
       <c r="E20">
-        <v>0.9859729177027213</v>
+        <v>1.037553145054783</v>
       </c>
       <c r="F20">
-        <v>0.9895002567786896</v>
+        <v>1.0548295875912</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036935723335953</v>
+        <v>1.034019923056024</v>
       </c>
       <c r="J20">
-        <v>1.004009875199523</v>
+        <v>1.045119859208417</v>
       </c>
       <c r="K20">
-        <v>1.004195210245009</v>
+        <v>1.051701360383216</v>
       </c>
       <c r="L20">
-        <v>1.000266983812457</v>
+        <v>1.04092126860012</v>
       </c>
       <c r="M20">
-        <v>1.003730278762554</v>
+        <v>1.058138637575156</v>
       </c>
       <c r="N20">
-        <v>1.004296447157372</v>
+        <v>1.018785376630311</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.966766599576563</v>
+        <v>1.037414804382241</v>
       </c>
       <c r="D21">
-        <v>0.9818400893430764</v>
+        <v>1.046874687127055</v>
       </c>
       <c r="E21">
-        <v>0.9788520253901417</v>
+        <v>1.03624225720726</v>
       </c>
       <c r="F21">
-        <v>0.9805563222522879</v>
+        <v>1.053165249830832</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034850857820247</v>
+        <v>1.033758856386332</v>
       </c>
       <c r="J21">
-        <v>0.997722643873583</v>
+        <v>1.043990429908761</v>
       </c>
       <c r="K21">
-        <v>0.9971738724294915</v>
+        <v>1.050414818615576</v>
       </c>
       <c r="L21">
-        <v>0.994245443181124</v>
+        <v>1.039821493980015</v>
       </c>
       <c r="M21">
-        <v>0.9959156677425598</v>
+        <v>1.056682655575722</v>
       </c>
       <c r="N21">
-        <v>1.002103600386078</v>
+        <v>1.018398290603038</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9610736513556478</v>
+        <v>1.036452462084263</v>
       </c>
       <c r="D22">
-        <v>0.9765478797832096</v>
+        <v>1.045933424252941</v>
       </c>
       <c r="E22">
-        <v>0.9742222247007968</v>
+        <v>1.035417362446581</v>
       </c>
       <c r="F22">
-        <v>0.9747372968403201</v>
+        <v>1.052118259615336</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033479158748438</v>
+        <v>1.033592684492273</v>
       </c>
       <c r="J22">
-        <v>0.9936228084017514</v>
+        <v>1.043278703983863</v>
       </c>
       <c r="K22">
-        <v>0.9925986972054444</v>
+        <v>1.049604556824554</v>
       </c>
       <c r="L22">
-        <v>0.9903222444554176</v>
+        <v>1.039128734471031</v>
       </c>
       <c r="M22">
-        <v>0.9908263927562779</v>
+        <v>1.055766142105212</v>
       </c>
       <c r="N22">
-        <v>1.000673274274773</v>
+        <v>1.018154135142616</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.964111707602671</v>
+        <v>1.036962732243371</v>
       </c>
       <c r="D23">
-        <v>0.9793711664423427</v>
+        <v>1.046432483146271</v>
       </c>
       <c r="E23">
-        <v>0.976691783395667</v>
+        <v>1.035854721250747</v>
       </c>
       <c r="F23">
-        <v>0.9778416097481485</v>
+        <v>1.052673343464617</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034212334674014</v>
+        <v>1.033680968029004</v>
       </c>
       <c r="J23">
-        <v>0.9958108279504374</v>
+        <v>1.04365615719399</v>
       </c>
       <c r="K23">
-        <v>0.9950400875833254</v>
+        <v>1.05003422252036</v>
       </c>
       <c r="L23">
-        <v>0.9924156719054853</v>
+        <v>1.039496102658042</v>
       </c>
       <c r="M23">
-        <v>0.9935418609673509</v>
+        <v>1.056252107291779</v>
       </c>
       <c r="N23">
-        <v>1.001436646301</v>
+        <v>1.01828364083748</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9756439822783354</v>
+        <v>1.0389691170605</v>
       </c>
       <c r="D24">
-        <v>0.9901072683411368</v>
+        <v>1.048395539070907</v>
       </c>
       <c r="E24">
-        <v>0.9860898719918261</v>
+        <v>1.037575110900792</v>
       </c>
       <c r="F24">
-        <v>0.9896470978736721</v>
+        <v>1.054857481453312</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036969696294306</v>
+        <v>1.034024265557821</v>
       </c>
       <c r="J24">
-        <v>1.004112942153641</v>
+        <v>1.045138767261742</v>
       </c>
       <c r="K24">
-        <v>1.004310367620597</v>
+        <v>1.05172290667245</v>
       </c>
       <c r="L24">
-        <v>1.00036574943416</v>
+        <v>1.040939684912265</v>
       </c>
       <c r="M24">
-        <v>1.003858494535323</v>
+        <v>1.058163029380927</v>
       </c>
       <c r="N24">
-        <v>1.004332386432326</v>
+        <v>1.018791853063794</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9882421737146322</v>
+        <v>1.041292441770002</v>
       </c>
       <c r="D25">
-        <v>1.001870512711453</v>
+        <v>1.050670231626194</v>
       </c>
       <c r="E25">
-        <v>0.9963993215210958</v>
+        <v>1.039568664649417</v>
       </c>
       <c r="F25">
-        <v>1.002585281825839</v>
+        <v>1.057389827020154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039926579874</v>
+        <v>1.03441384389796</v>
       </c>
       <c r="J25">
-        <v>1.013171819761082</v>
+        <v>1.046852380502701</v>
       </c>
       <c r="K25">
-        <v>1.01443986061145</v>
+        <v>1.053676749793877</v>
       </c>
       <c r="L25">
-        <v>1.009053791734261</v>
+        <v>1.042609397003005</v>
       </c>
       <c r="M25">
-        <v>1.015143596754937</v>
+        <v>1.060376016400234</v>
       </c>
       <c r="N25">
-        <v>1.00748973512269</v>
+        <v>1.01937825394386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043141713594257</v>
+        <v>0.9977452119437551</v>
       </c>
       <c r="D2">
-        <v>1.052482017688416</v>
+        <v>1.010768254705547</v>
       </c>
       <c r="E2">
-        <v>1.041156550327732</v>
+        <v>1.004205305121296</v>
       </c>
       <c r="F2">
-        <v>1.059408031509647</v>
+        <v>1.012375848385003</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034717511710976</v>
+        <v>1.042109999051414</v>
       </c>
       <c r="J2">
-        <v>1.048213753378079</v>
+        <v>1.019993573122604</v>
       </c>
       <c r="K2">
-        <v>1.055230628717997</v>
+        <v>1.022079581714972</v>
       </c>
       <c r="L2">
-        <v>1.043936862582978</v>
+        <v>1.015606362623275</v>
       </c>
       <c r="M2">
-        <v>1.062137617646028</v>
+        <v>1.023665419006279</v>
       </c>
       <c r="N2">
-        <v>1.019843307565464</v>
+        <v>1.009864775076907</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044482344636537</v>
+        <v>1.004365879348731</v>
       </c>
       <c r="D3">
-        <v>1.05379617344803</v>
+        <v>1.016980004973134</v>
       </c>
       <c r="E3">
-        <v>1.042308310228442</v>
+        <v>1.009658634062818</v>
       </c>
       <c r="F3">
-        <v>1.060872610398774</v>
+        <v>1.019213920220529</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034933925769033</v>
+        <v>1.043602707530662</v>
       </c>
       <c r="J3">
-        <v>1.049199170057318</v>
+        <v>1.024738229555922</v>
       </c>
       <c r="K3">
-        <v>1.056356352825202</v>
+        <v>1.027400137271211</v>
       </c>
       <c r="L3">
-        <v>1.044898296560397</v>
+        <v>1.02016940468043</v>
       </c>
       <c r="M3">
-        <v>1.063414775286938</v>
+        <v>1.029606719065261</v>
       </c>
       <c r="N3">
-        <v>1.020179458231152</v>
+        <v>1.011514839820255</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045348882553337</v>
+        <v>1.008531273813106</v>
       </c>
       <c r="D4">
-        <v>1.054645919465514</v>
+        <v>1.020893643656015</v>
       </c>
       <c r="E4">
-        <v>1.043053050402776</v>
+        <v>1.013095945957436</v>
       </c>
       <c r="F4">
-        <v>1.061819947172719</v>
+        <v>1.023523752957159</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035072080063426</v>
+        <v>1.044528279114627</v>
       </c>
       <c r="J4">
-        <v>1.049835407551656</v>
+        <v>1.027719238004471</v>
       </c>
       <c r="K4">
-        <v>1.057083627388556</v>
+        <v>1.030746274816819</v>
       </c>
       <c r="L4">
-        <v>1.045519308542916</v>
+        <v>1.023038842694274</v>
       </c>
       <c r="M4">
-        <v>1.064240322906425</v>
+        <v>1.033346320845915</v>
       </c>
       <c r="N4">
-        <v>1.020396274279986</v>
+        <v>1.012550613214512</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045712954610027</v>
+        <v>1.010255453954134</v>
       </c>
       <c r="D5">
-        <v>1.055003012834022</v>
+        <v>1.022514883654961</v>
       </c>
       <c r="E5">
-        <v>1.043366016441585</v>
+        <v>1.014520195352409</v>
       </c>
       <c r="F5">
-        <v>1.062218129865704</v>
+        <v>1.025309525596385</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035129710796643</v>
+        <v>1.044908086332613</v>
       </c>
       <c r="J5">
-        <v>1.050102551425306</v>
+        <v>1.028952127497382</v>
       </c>
       <c r="K5">
-        <v>1.057389103224557</v>
+        <v>1.032130976849243</v>
       </c>
       <c r="L5">
-        <v>1.04578012147027</v>
+        <v>1.024226189924327</v>
       </c>
       <c r="M5">
-        <v>1.064587181586768</v>
+        <v>1.034894599295764</v>
       </c>
       <c r="N5">
-        <v>1.020487258091707</v>
+        <v>1.012978749408833</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045774071113191</v>
+        <v>1.0105434109464</v>
       </c>
       <c r="D6">
-        <v>1.055062962294645</v>
+        <v>1.022785721637068</v>
       </c>
       <c r="E6">
-        <v>1.043418557708707</v>
+        <v>1.014758143344363</v>
       </c>
       <c r="F6">
-        <v>1.062284982069589</v>
+        <v>1.025607874480065</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035139360923274</v>
+        <v>1.044971321712438</v>
       </c>
       <c r="J6">
-        <v>1.050147386774437</v>
+        <v>1.029157970932272</v>
       </c>
       <c r="K6">
-        <v>1.057440378208194</v>
+        <v>1.03236221440102</v>
       </c>
       <c r="L6">
-        <v>1.045823897914622</v>
+        <v>1.024424464779162</v>
       </c>
       <c r="M6">
-        <v>1.064645408984596</v>
+        <v>1.03515319789933</v>
       </c>
       <c r="N6">
-        <v>1.020502524987343</v>
+        <v>1.013050216551249</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045353748162674</v>
+        <v>1.008554416462537</v>
       </c>
       <c r="D7">
-        <v>1.054650691509245</v>
+        <v>1.020915399648916</v>
       </c>
       <c r="E7">
-        <v>1.043057232748744</v>
+        <v>1.013115057201013</v>
       </c>
       <c r="F7">
-        <v>1.061825268008903</v>
+        <v>1.023547715224899</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035072851892737</v>
+        <v>1.044533390231456</v>
       </c>
       <c r="J7">
-        <v>1.049838978435444</v>
+        <v>1.027735790529834</v>
       </c>
       <c r="K7">
-        <v>1.057087710229701</v>
+        <v>1.030764862358913</v>
       </c>
       <c r="L7">
-        <v>1.045522794558115</v>
+        <v>1.023054781407972</v>
       </c>
       <c r="M7">
-        <v>1.064244958435976</v>
+        <v>1.033367101157455</v>
       </c>
       <c r="N7">
-        <v>1.020397490659873</v>
+        <v>1.01255636225463</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043594983516239</v>
+        <v>1.000008165010912</v>
       </c>
       <c r="D8">
-        <v>1.052926269519644</v>
+        <v>1.012890242590851</v>
       </c>
       <c r="E8">
-        <v>1.041545903641882</v>
+        <v>1.006067871916984</v>
       </c>
       <c r="F8">
-        <v>1.059903066739545</v>
+        <v>1.014711475797951</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034791039596699</v>
+        <v>1.042623031146625</v>
       </c>
       <c r="J8">
-        <v>1.048547069866396</v>
+        <v>1.021616130421309</v>
       </c>
       <c r="K8">
-        <v>1.055611311499693</v>
+        <v>1.023898393007259</v>
       </c>
       <c r="L8">
-        <v>1.044262013200143</v>
+        <v>1.017166272596247</v>
       </c>
       <c r="M8">
-        <v>1.062569419310556</v>
+        <v>1.025695790992742</v>
       </c>
       <c r="N8">
-        <v>1.019957055921425</v>
+        <v>1.010429246805315</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040488411403743</v>
+        <v>0.9839687705451376</v>
       </c>
       <c r="D9">
-        <v>1.049882840552151</v>
+        <v>0.9978762179522648</v>
       </c>
       <c r="E9">
-        <v>1.038878585530444</v>
+        <v>0.9928972988945897</v>
       </c>
       <c r="F9">
-        <v>1.056513063723964</v>
+        <v>0.998191472181443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034280016693602</v>
+        <v>1.038930882981235</v>
       </c>
       <c r="J9">
-        <v>1.046259753032331</v>
+        <v>1.010100616807079</v>
       </c>
       <c r="K9">
-        <v>1.053000785999842</v>
+        <v>1.011003846272851</v>
       </c>
       <c r="L9">
-        <v>1.042031801497706</v>
+        <v>1.006106673281438</v>
       </c>
       <c r="M9">
-        <v>1.059610145901546</v>
+        <v>1.011313959794218</v>
       </c>
       <c r="N9">
-        <v>1.019175581047047</v>
+        <v>1.006419674938343</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038412096900294</v>
+        <v>0.9725060600333275</v>
       </c>
       <c r="D10">
-        <v>1.047850426266706</v>
+        <v>0.9871829857742687</v>
       </c>
       <c r="E10">
-        <v>1.037097378375161</v>
+        <v>0.9835289452661974</v>
       </c>
       <c r="F10">
-        <v>1.054250862203051</v>
+        <v>0.9864313566824737</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033929580801075</v>
+        <v>1.036223754119765</v>
       </c>
       <c r="J10">
-        <v>1.044727409574899</v>
+        <v>1.001854637278857</v>
       </c>
       <c r="K10">
-        <v>1.051254212196257</v>
+        <v>1.001787576753126</v>
       </c>
       <c r="L10">
-        <v>1.040539060722382</v>
+        <v>0.9982020971150989</v>
       </c>
       <c r="M10">
-        <v>1.057632495339247</v>
+        <v>1.001049996332997</v>
       </c>
       <c r="N10">
-        <v>1.018650924752226</v>
+        <v>1.003544852388288</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03751171587252</v>
+        <v>0.9673313407261196</v>
       </c>
       <c r="D11">
-        <v>1.046969491085067</v>
+        <v>0.9823654779742057</v>
       </c>
       <c r="E11">
-        <v>1.036325341250355</v>
+        <v>0.979311803691658</v>
       </c>
       <c r="F11">
-        <v>1.053270716879101</v>
+        <v>0.9811340218778161</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033775513221056</v>
+        <v>1.034986409247972</v>
       </c>
       <c r="J11">
-        <v>1.044062072400494</v>
+        <v>0.9981292848455063</v>
       </c>
       <c r="K11">
-        <v>1.050496399657132</v>
+        <v>0.9976277983061645</v>
       </c>
       <c r="L11">
-        <v>1.039891239130411</v>
+        <v>0.9946347073293134</v>
       </c>
       <c r="M11">
-        <v>1.056774954063185</v>
+        <v>0.9964207140314267</v>
       </c>
       <c r="N11">
-        <v>1.018422857733476</v>
+        <v>1.002245453038443</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037177069810005</v>
+        <v>0.9653746856450308</v>
       </c>
       <c r="D12">
-        <v>1.046642134423112</v>
+        <v>0.9805454763823039</v>
       </c>
       <c r="E12">
-        <v>1.036038453790699</v>
+        <v>0.9777191985309852</v>
       </c>
       <c r="F12">
-        <v>1.052906551830964</v>
+        <v>0.9791328203870112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03371793507485</v>
+        <v>1.034516352233336</v>
       </c>
       <c r="J12">
-        <v>1.043814658809328</v>
+        <v>0.9967203441774649</v>
       </c>
       <c r="K12">
-        <v>1.050214679329385</v>
+        <v>0.9960551327555661</v>
       </c>
       <c r="L12">
-        <v>1.039650387119533</v>
+        <v>0.9932860854695257</v>
       </c>
       <c r="M12">
-        <v>1.056456238856841</v>
+        <v>0.9946710278633459</v>
       </c>
       <c r="N12">
-        <v>1.018338008933224</v>
+        <v>1.001753946240338</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037248861870034</v>
+        <v>0.9657960060090777</v>
       </c>
       <c r="D13">
-        <v>1.046712359867886</v>
+        <v>0.9809372981855344</v>
       </c>
       <c r="E13">
-        <v>1.036099997550004</v>
+        <v>0.9780620375046993</v>
       </c>
       <c r="F13">
-        <v>1.052984670880778</v>
+        <v>0.9795636496322596</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033730301664475</v>
+        <v>1.034617665576643</v>
       </c>
       <c r="J13">
-        <v>1.043867742496599</v>
+        <v>0.9970237395127974</v>
       </c>
       <c r="K13">
-        <v>1.05027512000257</v>
+        <v>0.9963937581265173</v>
       </c>
       <c r="L13">
-        <v>1.039702060808297</v>
+        <v>0.9935764656722408</v>
       </c>
       <c r="M13">
-        <v>1.056524612858041</v>
+        <v>0.9950477478555146</v>
       </c>
       <c r="N13">
-        <v>1.018356215397741</v>
+        <v>1.001859787994069</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037484058128432</v>
+        <v>0.9671703248154065</v>
       </c>
       <c r="D14">
-        <v>1.04694243452741</v>
+        <v>0.9822156746591881</v>
       </c>
       <c r="E14">
-        <v>1.036301629483472</v>
+        <v>0.9791807050124662</v>
       </c>
       <c r="F14">
-        <v>1.053240616862652</v>
+        <v>0.9809693029176419</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033770760951523</v>
+        <v>1.034947771532834</v>
       </c>
       <c r="J14">
-        <v>1.044041626804651</v>
+        <v>0.9980133469453819</v>
       </c>
       <c r="K14">
-        <v>1.050473117386968</v>
+        <v>0.9974983763200322</v>
       </c>
       <c r="L14">
-        <v>1.039871334782526</v>
+        <v>0.9945237210937274</v>
       </c>
       <c r="M14">
-        <v>1.05674861279259</v>
+        <v>0.9962767145600848</v>
       </c>
       <c r="N14">
-        <v>1.01841584685724</v>
+        <v>1.00220500955298</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037628943042613</v>
+        <v>0.968012422772227</v>
       </c>
       <c r="D15">
-        <v>1.047084172669019</v>
+        <v>0.9829991969246805</v>
       </c>
       <c r="E15">
-        <v>1.036425845752899</v>
+        <v>0.9798664198335095</v>
       </c>
       <c r="F15">
-        <v>1.053398300811747</v>
+        <v>0.9818308417538238</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033795642765747</v>
+        <v>1.035149754482412</v>
       </c>
       <c r="J15">
-        <v>1.044148725743725</v>
+        <v>0.9986196789025056</v>
       </c>
       <c r="K15">
-        <v>1.050595078835362</v>
+        <v>0.9981752506937356</v>
       </c>
       <c r="L15">
-        <v>1.039975600508438</v>
+        <v>0.9951041803968821</v>
       </c>
       <c r="M15">
-        <v>1.056886601720235</v>
+        <v>0.9970298483425599</v>
       </c>
       <c r="N15">
-        <v>1.018452569900568</v>
+        <v>1.002416518177991</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038471823863262</v>
+        <v>0.972844806788051</v>
       </c>
       <c r="D16">
-        <v>1.047908871937151</v>
+        <v>0.9874985613779322</v>
       </c>
       <c r="E16">
-        <v>1.037148599534425</v>
+        <v>0.9838052705238589</v>
       </c>
       <c r="F16">
-        <v>1.054315898151654</v>
+        <v>0.9867783768006159</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033939756652065</v>
+        <v>1.036304445131638</v>
       </c>
       <c r="J16">
-        <v>1.044771527080334</v>
+        <v>1.002098456293775</v>
       </c>
       <c r="K16">
-        <v>1.05130447300736</v>
+        <v>1.002059908568487</v>
       </c>
       <c r="L16">
-        <v>1.040582023543547</v>
+        <v>0.9984356562373897</v>
       </c>
       <c r="M16">
-        <v>1.057689381697693</v>
+        <v>1.00135313344509</v>
       </c>
       <c r="N16">
-        <v>1.01866604200778</v>
+        <v>1.003629885341803</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039000182495534</v>
+        <v>0.9758175968754671</v>
       </c>
       <c r="D17">
-        <v>1.048425943209378</v>
+        <v>0.9902691283822556</v>
       </c>
       <c r="E17">
-        <v>1.037601756942639</v>
+        <v>0.9862316434387005</v>
       </c>
       <c r="F17">
-        <v>1.05489131882116</v>
+        <v>0.989825095754128</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034029531867869</v>
+        <v>1.037010866001008</v>
       </c>
       <c r="J17">
-        <v>1.045161703227555</v>
+        <v>1.004237870759981</v>
       </c>
       <c r="K17">
-        <v>1.051749043245402</v>
+        <v>1.004449953710022</v>
       </c>
       <c r="L17">
-        <v>1.040962024594049</v>
+        <v>1.000485466742802</v>
       </c>
       <c r="M17">
-        <v>1.058192618038308</v>
+        <v>1.004013911340226</v>
       </c>
       <c r="N17">
-        <v>1.018799708974143</v>
+        <v>1.004375948415128</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039308237867872</v>
+        <v>0.9775313937126489</v>
       </c>
       <c r="D18">
-        <v>1.048727456947504</v>
+        <v>0.991867263028297</v>
       </c>
       <c r="E18">
-        <v>1.03786600267189</v>
+        <v>0.9876315618693779</v>
       </c>
       <c r="F18">
-        <v>1.055226894736365</v>
+        <v>0.9915826031943298</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034081671828355</v>
+        <v>1.037416673093904</v>
       </c>
       <c r="J18">
-        <v>1.045389110812289</v>
+        <v>1.005470961375478</v>
       </c>
       <c r="K18">
-        <v>1.052008205784814</v>
+        <v>1.005827870451961</v>
       </c>
       <c r="L18">
-        <v>1.041183532640104</v>
+        <v>1.001667261537559</v>
       </c>
       <c r="M18">
-        <v>1.05848603131076</v>
+        <v>1.005548231110693</v>
       </c>
       <c r="N18">
-        <v>1.018877589119105</v>
+        <v>1.004805895821086</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039413255370998</v>
+        <v>0.9781124104758495</v>
       </c>
       <c r="D19">
-        <v>1.048830251039896</v>
+        <v>0.9924092204021308</v>
       </c>
       <c r="E19">
-        <v>1.037956091318084</v>
+        <v>0.9881063536224128</v>
       </c>
       <c r="F19">
-        <v>1.055341307917028</v>
+        <v>0.992178622053381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034099412176203</v>
+        <v>1.037554004023581</v>
       </c>
       <c r="J19">
-        <v>1.045466621262682</v>
+        <v>1.005888958974072</v>
       </c>
       <c r="K19">
-        <v>1.052096548585036</v>
+        <v>1.006295025000425</v>
       </c>
       <c r="L19">
-        <v>1.041259037498941</v>
+        <v>1.002067929420537</v>
       </c>
       <c r="M19">
-        <v>1.058586058136243</v>
+        <v>1.006068465772706</v>
       </c>
       <c r="N19">
-        <v>1.018904129764806</v>
+        <v>1.004951630195059</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038943507822261</v>
+        <v>0.9755007511935275</v>
       </c>
       <c r="D20">
-        <v>1.04837047520387</v>
+        <v>0.9899737398901723</v>
       </c>
       <c r="E20">
-        <v>1.037553145054783</v>
+        <v>0.985972917702721</v>
       </c>
       <c r="F20">
-        <v>1.0548295875912</v>
+        <v>0.9895002567786899</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034019923056024</v>
+        <v>1.036935723335953</v>
       </c>
       <c r="J20">
-        <v>1.045119859208417</v>
+        <v>1.004009875199522</v>
       </c>
       <c r="K20">
-        <v>1.051701360383216</v>
+        <v>1.004195210245009</v>
       </c>
       <c r="L20">
-        <v>1.04092126860012</v>
+        <v>1.000266983812457</v>
       </c>
       <c r="M20">
-        <v>1.058138637575156</v>
+        <v>1.003730278762554</v>
       </c>
       <c r="N20">
-        <v>1.018785376630311</v>
+        <v>1.004296447157372</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037414804382241</v>
+        <v>0.9667665995765639</v>
       </c>
       <c r="D21">
-        <v>1.046874687127055</v>
+        <v>0.9818400893430776</v>
       </c>
       <c r="E21">
-        <v>1.03624225720726</v>
+        <v>0.9788520253901423</v>
       </c>
       <c r="F21">
-        <v>1.053165249830832</v>
+        <v>0.9805563222522891</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033758856386332</v>
+        <v>1.034850857820248</v>
       </c>
       <c r="J21">
-        <v>1.043990429908761</v>
+        <v>0.9977226438735839</v>
       </c>
       <c r="K21">
-        <v>1.050414818615576</v>
+        <v>0.9971738724294925</v>
       </c>
       <c r="L21">
-        <v>1.039821493980015</v>
+        <v>0.9942454431811243</v>
       </c>
       <c r="M21">
-        <v>1.056682655575722</v>
+        <v>0.9959156677425608</v>
       </c>
       <c r="N21">
-        <v>1.018398290603038</v>
+        <v>1.002103600386078</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036452462084263</v>
+        <v>0.9610736513556475</v>
       </c>
       <c r="D22">
-        <v>1.045933424252941</v>
+        <v>0.9765478797832091</v>
       </c>
       <c r="E22">
-        <v>1.035417362446581</v>
+        <v>0.9742222247007963</v>
       </c>
       <c r="F22">
-        <v>1.052118259615336</v>
+        <v>0.9747372968403196</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033592684492273</v>
+        <v>1.033479158748438</v>
       </c>
       <c r="J22">
-        <v>1.043278703983863</v>
+        <v>0.993622808401751</v>
       </c>
       <c r="K22">
-        <v>1.049604556824554</v>
+        <v>0.992598697205444</v>
       </c>
       <c r="L22">
-        <v>1.039128734471031</v>
+        <v>0.9903222444554172</v>
       </c>
       <c r="M22">
-        <v>1.055766142105212</v>
+        <v>0.9908263927562775</v>
       </c>
       <c r="N22">
-        <v>1.018154135142616</v>
+        <v>1.000673274274773</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036962732243371</v>
+        <v>0.9641117076026695</v>
       </c>
       <c r="D23">
-        <v>1.046432483146271</v>
+        <v>0.9793711664423413</v>
       </c>
       <c r="E23">
-        <v>1.035854721250747</v>
+        <v>0.9766917833956658</v>
       </c>
       <c r="F23">
-        <v>1.052673343464617</v>
+        <v>0.977841609748147</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033680968029004</v>
+        <v>1.034212334674014</v>
       </c>
       <c r="J23">
-        <v>1.04365615719399</v>
+        <v>0.9958108279504362</v>
       </c>
       <c r="K23">
-        <v>1.05003422252036</v>
+        <v>0.9950400875833241</v>
       </c>
       <c r="L23">
-        <v>1.039496102658042</v>
+        <v>0.9924156719054841</v>
       </c>
       <c r="M23">
-        <v>1.056252107291779</v>
+        <v>0.9935418609673495</v>
       </c>
       <c r="N23">
-        <v>1.01828364083748</v>
+        <v>1.001436646301</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0389691170605</v>
+        <v>0.9756439822783352</v>
       </c>
       <c r="D24">
-        <v>1.048395539070907</v>
+        <v>0.9901072683411366</v>
       </c>
       <c r="E24">
-        <v>1.037575110900792</v>
+        <v>0.9860898719918261</v>
       </c>
       <c r="F24">
-        <v>1.054857481453312</v>
+        <v>0.989647097873672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034024265557821</v>
+        <v>1.036969696294306</v>
       </c>
       <c r="J24">
-        <v>1.045138767261742</v>
+        <v>1.004112942153641</v>
       </c>
       <c r="K24">
-        <v>1.05172290667245</v>
+        <v>1.004310367620596</v>
       </c>
       <c r="L24">
-        <v>1.040939684912265</v>
+        <v>1.00036574943416</v>
       </c>
       <c r="M24">
-        <v>1.058163029380927</v>
+        <v>1.003858494535323</v>
       </c>
       <c r="N24">
-        <v>1.018791853063794</v>
+        <v>1.004332386432326</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041292441770002</v>
+        <v>0.9882421737146329</v>
       </c>
       <c r="D25">
-        <v>1.050670231626194</v>
+        <v>1.001870512711454</v>
       </c>
       <c r="E25">
-        <v>1.039568664649417</v>
+        <v>0.9963993215210963</v>
       </c>
       <c r="F25">
-        <v>1.057389827020154</v>
+        <v>1.00258528182584</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03441384389796</v>
+        <v>1.039926579874001</v>
       </c>
       <c r="J25">
-        <v>1.046852380502701</v>
+        <v>1.013171819761083</v>
       </c>
       <c r="K25">
-        <v>1.053676749793877</v>
+        <v>1.01443986061145</v>
       </c>
       <c r="L25">
-        <v>1.042609397003005</v>
+        <v>1.009053791734261</v>
       </c>
       <c r="M25">
-        <v>1.060376016400234</v>
+        <v>1.015143596754938</v>
       </c>
       <c r="N25">
-        <v>1.01937825394386</v>
+        <v>1.00748973512269</v>
       </c>
     </row>
   </sheetData>
